--- a/Documents/Rule_List.xlsx
+++ b/Documents/Rule_List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t xml:space="preserve">SCRUM NUMBER</t>
   </si>
@@ -98,40 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://docs.aws.amazon.com/storagegateway/latest/APIReference/API_AddUploadBuffer.html</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">¯\_(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ツ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)_/¯ </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">http://loli.dance/</t>
   </si>
   <si>
     <t xml:space="preserve">Instance Sharing Code</t>
@@ -198,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -309,12 +275,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -577,7 +537,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -773,22 +733,16 @@
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,10 +766,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,10 +777,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,10 +788,10 @@
         <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,10 +799,10 @@
         <v>23</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,10 +810,10 @@
         <v>24</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,10 +821,10 @@
         <v>25</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,10 +832,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,10 +843,10 @@
         <v>27</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,10 +854,10 @@
         <v>28</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Rule_List.xlsx
+++ b/Documents/Rule_List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t xml:space="preserve">SCRUM NUMBER</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">http://docs.aws.amazon.com/storagegateway/latest/APIReference/API_AddUploadBuffer.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty text file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">←</t>
   </si>
   <si>
     <t xml:space="preserve">Instance Sharing Code</t>
@@ -537,7 +543,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -733,16 +739,22 @@
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="E17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,7 +762,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,7 +770,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,10 +778,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,10 +789,10 @@
         <v>21</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,10 +800,10 @@
         <v>22</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,10 +811,10 @@
         <v>23</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,10 +822,10 @@
         <v>24</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,10 +833,10 @@
         <v>25</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,10 +844,10 @@
         <v>26</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,10 +855,10 @@
         <v>27</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,10 +866,10 @@
         <v>28</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Rule_List.xlsx
+++ b/Documents/Rule_List.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5970"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>STATUS</t>
   </si>
@@ -171,26 +175,35 @@
   <si>
     <t>https://12factor.net/processes</t>
   </si>
+  <si>
+    <t>Maven Issue</t>
+  </si>
+  <si>
+    <t>Unknown Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBI </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -200,7 +213,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -209,59 +222,321 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.63"/>
-    <col customWidth="1" min="2" max="2" width="10.13"/>
-    <col customWidth="1" min="3" max="4" width="9.25"/>
-    <col customWidth="1" min="5" max="5" width="7.63"/>
-    <col customWidth="1" min="6" max="6" width="19.88"/>
-    <col customWidth="1" min="7" max="7" width="7.63"/>
-    <col customWidth="1" min="8" max="8" width="11.75"/>
-    <col customWidth="1" min="9" max="27" width="7.63"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="27" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -302,14 +577,14 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
@@ -340,14 +615,14 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -378,7 +653,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -387,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -417,7 +692,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -426,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
@@ -456,7 +731,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -465,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -495,7 +770,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -504,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -534,7 +809,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -543,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -573,7 +848,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -582,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
@@ -612,7 +887,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -621,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
@@ -651,7 +926,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -660,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
@@ -690,7 +965,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,7 +974,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
@@ -729,7 +1004,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -738,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
@@ -766,7 +1041,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -775,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -805,7 +1080,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
@@ -844,7 +1119,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
@@ -883,7 +1158,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -892,7 +1167,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1" t="s">
@@ -922,14 +1197,16 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D18" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
@@ -957,7 +1234,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,7 +1243,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
@@ -994,14 +1271,16 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D20" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
@@ -1029,14 +1308,14 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
@@ -1066,14 +1345,14 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -1103,14 +1382,16 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D23" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
@@ -1140,14 +1421,16 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D24" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
@@ -1177,14 +1460,16 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D25" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
@@ -1214,14 +1499,16 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
+    <row r="26" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D26" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
@@ -1251,7 +1538,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
+    <row r="27" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1260,7 +1547,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -1290,7 +1577,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1299,7 +1586,7 @@
         <v>48</v>
       </c>
       <c r="D28" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -1329,14 +1616,16 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D29" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
@@ -1366,7 +1655,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1395,7 +1684,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1424,7 +1713,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1453,7 +1742,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1482,7 +1771,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1511,7 +1800,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1540,7 +1829,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1569,7 +1858,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1598,7 +1887,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1627,7 +1916,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1656,7 +1945,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1685,7 +1974,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1714,7 +2003,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1743,7 +2032,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1772,7 +2061,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1801,7 +2090,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1830,7 +2119,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1859,7 +2148,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1888,7 +2177,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1917,7 +2206,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1946,7 +2235,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1975,7 +2264,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2004,7 +2293,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2033,7 +2322,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2062,7 +2351,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2091,7 +2380,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2120,7 +2409,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2149,7 +2438,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2178,7 +2467,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2207,7 +2496,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2236,7 +2525,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2265,7 +2554,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2294,7 +2583,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2323,7 +2612,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2352,7 +2641,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2381,7 +2670,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2410,7 +2699,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2439,7 +2728,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2468,7 +2757,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2497,7 +2786,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2526,7 +2815,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2555,7 +2844,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2584,7 +2873,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2613,7 +2902,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2642,7 +2931,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2671,7 +2960,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2700,7 +2989,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2729,7 +3018,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2758,7 +3047,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2787,7 +3076,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2816,7 +3105,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2845,7 +3134,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2874,7 +3163,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2903,7 +3192,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2932,7 +3221,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2961,7 +3250,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2990,7 +3279,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3019,7 +3308,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3048,7 +3337,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3077,7 +3366,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3106,7 +3395,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3135,7 +3424,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3164,7 +3453,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3193,7 +3482,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3222,7 +3511,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3251,7 +3540,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3280,7 +3569,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3309,7 +3598,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3338,7 +3627,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3367,7 +3656,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3396,7 +3685,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3425,7 +3714,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3454,7 +3743,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3483,7 +3772,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3512,7 +3801,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3541,7 +3830,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3570,7 +3859,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3599,7 +3888,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3628,7 +3917,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3657,7 +3946,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3686,7 +3975,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3715,7 +4004,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3744,7 +4033,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3773,7 +4062,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3802,7 +4091,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3831,7 +4120,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3860,7 +4149,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3889,7 +4178,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3918,7 +4207,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3947,7 +4236,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3976,7 +4265,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4005,7 +4294,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4034,7 +4323,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4063,7 +4352,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4092,7 +4381,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4121,7 +4410,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4150,7 +4439,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4179,7 +4468,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4208,7 +4497,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4237,7 +4526,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4266,7 +4555,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4295,7 +4584,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4324,7 +4613,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4353,7 +4642,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4382,7 +4671,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4411,7 +4700,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4440,7 +4729,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4469,7 +4758,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4498,7 +4787,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4527,7 +4816,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4556,7 +4845,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4585,7 +4874,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4614,7 +4903,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4643,7 +4932,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4672,7 +4961,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4701,7 +4990,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4730,7 +5019,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4759,7 +5048,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4788,7 +5077,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4817,7 +5106,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4846,7 +5135,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4875,7 +5164,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4904,7 +5193,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4933,7 +5222,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4962,7 +5251,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4991,7 +5280,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5020,7 +5309,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5049,7 +5338,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5078,7 +5367,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5107,7 +5396,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5136,7 +5425,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5165,7 +5454,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5194,7 +5483,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5223,7 +5512,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5252,7 +5541,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5281,7 +5570,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5310,7 +5599,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5339,7 +5628,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5368,7 +5657,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5397,7 +5686,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5426,7 +5715,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5455,7 +5744,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5484,7 +5773,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5513,7 +5802,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5542,7 +5831,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5571,7 +5860,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5600,7 +5889,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5629,7 +5918,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5658,7 +5947,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5687,7 +5976,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5716,7 +6005,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5745,7 +6034,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5774,7 +6063,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5803,7 +6092,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5832,7 +6121,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5861,7 +6150,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5890,7 +6179,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5919,7 +6208,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5948,7 +6237,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5977,7 +6266,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6006,7 +6295,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6035,7 +6324,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6064,7 +6353,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6093,7 +6382,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6122,7 +6411,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6151,7 +6440,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6180,7 +6469,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6209,7 +6498,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6238,7 +6527,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6267,7 +6556,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6296,7 +6585,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6325,7 +6614,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6354,7 +6643,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6383,7 +6672,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6412,7 +6701,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6441,7 +6730,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6470,7 +6759,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6499,7 +6788,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6528,7 +6817,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6557,7 +6846,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6586,7 +6875,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6615,7 +6904,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6644,7 +6933,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6673,7 +6962,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6702,7 +6991,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6731,7 +7020,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6760,7 +7049,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6789,7 +7078,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6818,7 +7107,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6847,7 +7136,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6876,7 +7165,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6905,7 +7194,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -6934,7 +7223,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -6963,7 +7252,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -6992,7 +7281,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7021,7 +7310,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7050,7 +7339,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7079,7 +7368,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7108,7 +7397,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7137,7 +7426,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7166,7 +7455,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7195,7 +7484,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7224,7 +7513,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7253,7 +7542,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7282,7 +7571,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7311,7 +7600,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -7340,7 +7629,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -7369,7 +7658,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -7398,7 +7687,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -7427,7 +7716,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -7456,7 +7745,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -7485,7 +7774,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -7514,7 +7803,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -7543,7 +7832,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -7572,7 +7861,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -7601,7 +7890,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -7630,7 +7919,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -7659,7 +7948,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -7688,7 +7977,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -7717,7 +8006,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -7746,7 +8035,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -7775,7 +8064,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -7804,7 +8093,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -7833,7 +8122,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -7862,7 +8151,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -7891,7 +8180,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -7920,7 +8209,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -7949,7 +8238,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -7978,7 +8267,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8007,7 +8296,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8036,7 +8325,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8065,7 +8354,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8094,7 +8383,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -8123,7 +8412,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -8152,7 +8441,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8181,7 +8470,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8210,7 +8499,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -8239,7 +8528,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -8268,7 +8557,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -8297,7 +8586,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -8326,7 +8615,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -8355,7 +8644,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -8384,7 +8673,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -8413,7 +8702,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -8442,7 +8731,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -8471,7 +8760,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -8500,7 +8789,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -8529,7 +8818,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -8558,7 +8847,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -8587,7 +8876,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -8616,7 +8905,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -8645,7 +8934,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -8674,7 +8963,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -8703,7 +8992,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -8732,7 +9021,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -8761,7 +9050,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -8790,7 +9079,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -8819,7 +9108,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -8848,7 +9137,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -8877,7 +9166,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -8906,7 +9195,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -8935,7 +9224,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -8964,7 +9253,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -8993,7 +9282,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -9022,7 +9311,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -9051,7 +9340,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -9080,7 +9369,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -9109,7 +9398,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -9138,7 +9427,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -9167,7 +9456,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -9196,7 +9485,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -9225,7 +9514,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -9254,7 +9543,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -9283,7 +9572,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -9312,7 +9601,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -9341,7 +9630,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -9370,7 +9659,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -9399,7 +9688,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -9428,7 +9717,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -9457,7 +9746,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -9486,7 +9775,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -9515,7 +9804,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -9544,7 +9833,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -9573,7 +9862,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -9602,7 +9891,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -9631,7 +9920,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -9660,7 +9949,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -9689,7 +9978,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -9718,7 +10007,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -9747,7 +10036,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -9776,7 +10065,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -9805,7 +10094,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -9834,7 +10123,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -9863,7 +10152,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -9892,7 +10181,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -9921,7 +10210,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -9950,7 +10239,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -9979,7 +10268,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -10008,7 +10297,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -10037,7 +10326,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -10066,7 +10355,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -10095,7 +10384,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -10124,7 +10413,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -10153,7 +10442,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -10182,7 +10471,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -10211,7 +10500,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -10240,7 +10529,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -10269,7 +10558,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -10298,7 +10587,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -10327,7 +10616,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -10356,7 +10645,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -10385,7 +10674,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -10414,7 +10703,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -10443,7 +10732,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -10472,7 +10761,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -10501,7 +10790,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -10530,7 +10819,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -10559,7 +10848,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -10588,7 +10877,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -10617,7 +10906,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -10646,7 +10935,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -10675,7 +10964,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -10704,7 +10993,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -10733,7 +11022,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -10762,7 +11051,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -10791,7 +11080,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -10820,7 +11109,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -10849,7 +11138,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -10878,7 +11167,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -10907,7 +11196,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -10936,7 +11225,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -10965,7 +11254,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -10994,7 +11283,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -11023,7 +11312,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -11052,7 +11341,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -11081,7 +11370,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -11110,7 +11399,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -11139,7 +11428,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -11168,7 +11457,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -11197,7 +11486,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -11226,7 +11515,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -11255,7 +11544,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -11284,7 +11573,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -11313,7 +11602,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -11342,7 +11631,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -11371,7 +11660,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -11400,7 +11689,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -11429,7 +11718,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -11458,7 +11747,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -11487,7 +11776,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -11516,7 +11805,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -11545,7 +11834,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -11574,7 +11863,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -11603,7 +11892,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -11632,7 +11921,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -11661,7 +11950,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -11690,7 +11979,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -11719,7 +12008,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -11748,7 +12037,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -11777,7 +12066,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -11806,7 +12095,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -11835,7 +12124,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -11864,7 +12153,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -11893,7 +12182,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -11922,7 +12211,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -11951,7 +12240,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -11980,7 +12269,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -12009,7 +12298,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -12038,7 +12327,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -12067,7 +12356,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -12096,7 +12385,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -12125,7 +12414,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -12154,7 +12443,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -12183,7 +12472,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -12212,7 +12501,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -12241,7 +12530,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -12270,7 +12559,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -12299,7 +12588,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -12328,7 +12617,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -12357,7 +12646,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -12386,7 +12675,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -12415,7 +12704,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -12444,7 +12733,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -12473,7 +12762,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -12502,7 +12791,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -12531,7 +12820,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -12560,7 +12849,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -12589,7 +12878,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -12618,7 +12907,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -12647,7 +12936,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -12676,7 +12965,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -12705,7 +12994,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -12734,7 +13023,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -12763,7 +13052,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -12792,7 +13081,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -12821,7 +13110,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -12850,7 +13139,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -12879,7 +13168,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -12908,7 +13197,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -12937,7 +13226,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -12966,7 +13255,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -12995,7 +13284,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -13024,7 +13313,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -13053,7 +13342,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -13082,7 +13371,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -13111,7 +13400,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -13140,7 +13429,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -13169,7 +13458,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -13198,7 +13487,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -13227,7 +13516,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -13256,7 +13545,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -13285,7 +13574,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -13314,7 +13603,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -13343,7 +13632,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -13372,7 +13661,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -13401,7 +13690,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -13430,7 +13719,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -13459,7 +13748,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -13488,7 +13777,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -13517,7 +13806,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -13546,7 +13835,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -13575,7 +13864,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -13604,7 +13893,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -13633,7 +13922,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -13662,7 +13951,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -13691,7 +13980,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -13720,7 +14009,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -13749,7 +14038,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -13778,7 +14067,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -13807,7 +14096,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -13836,7 +14125,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -13865,7 +14154,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -13894,7 +14183,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -13923,7 +14212,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -13952,7 +14241,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -13981,7 +14270,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -14010,7 +14299,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -14039,7 +14328,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -14068,7 +14357,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -14097,7 +14386,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -14126,7 +14415,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -14155,7 +14444,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -14184,7 +14473,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -14213,7 +14502,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -14242,7 +14531,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -14271,7 +14560,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -14300,7 +14589,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -14329,7 +14618,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -14358,7 +14647,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -14387,7 +14676,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -14416,7 +14705,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -14445,7 +14734,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -14474,7 +14763,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -14503,7 +14792,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -14532,7 +14821,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -14561,7 +14850,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -14590,7 +14879,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -14619,7 +14908,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -14648,7 +14937,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -14677,7 +14966,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -14706,7 +14995,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -14735,7 +15024,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -14764,7 +15053,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -14793,7 +15082,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -14822,7 +15111,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -14851,7 +15140,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -14880,7 +15169,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -14909,7 +15198,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -14938,7 +15227,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -14967,7 +15256,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -14996,7 +15285,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -15025,7 +15314,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -15054,7 +15343,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -15083,7 +15372,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -15112,7 +15401,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -15141,7 +15430,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -15170,7 +15459,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -15199,7 +15488,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -15228,7 +15517,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -15257,7 +15546,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -15286,7 +15575,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -15315,7 +15604,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -15344,7 +15633,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -15373,7 +15662,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -15402,7 +15691,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -15431,7 +15720,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -15460,7 +15749,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -15489,7 +15778,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -15518,7 +15807,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -15547,7 +15836,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -15576,7 +15865,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -15605,7 +15894,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -15634,7 +15923,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -15663,7 +15952,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -15692,7 +15981,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -15721,7 +16010,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -15750,7 +16039,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -15779,7 +16068,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -15808,7 +16097,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -15837,7 +16126,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -15866,7 +16155,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -15895,7 +16184,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -15924,7 +16213,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -15953,7 +16242,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -15982,7 +16271,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -16011,7 +16300,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -16040,7 +16329,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -16069,7 +16358,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -16098,7 +16387,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -16127,7 +16416,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -16156,7 +16445,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -16185,7 +16474,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -16214,7 +16503,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -16243,7 +16532,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -16272,7 +16561,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -16301,7 +16590,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -16330,7 +16619,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -16359,7 +16648,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -16388,7 +16677,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -16417,7 +16706,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -16446,7 +16735,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -16475,7 +16764,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -16504,7 +16793,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -16533,7 +16822,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -16562,7 +16851,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -16591,7 +16880,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -16620,7 +16909,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -16649,7 +16938,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -16678,7 +16967,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -16707,7 +16996,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -16736,7 +17025,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -16765,7 +17054,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -16794,7 +17083,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -16823,7 +17112,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -16852,7 +17141,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -16881,7 +17170,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -16910,7 +17199,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -16939,7 +17228,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -16968,7 +17257,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -16997,7 +17286,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -17026,7 +17315,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -17055,7 +17344,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -17084,7 +17373,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -17113,7 +17402,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -17142,7 +17431,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -17171,7 +17460,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -17200,7 +17489,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -17229,7 +17518,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -17258,7 +17547,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -17287,7 +17576,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -17316,7 +17605,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -17345,7 +17634,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -17374,7 +17663,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -17403,7 +17692,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -17432,7 +17721,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -17461,7 +17750,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -17490,7 +17779,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -17519,7 +17808,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -17548,7 +17837,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -17577,7 +17866,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -17606,7 +17895,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -17635,7 +17924,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -17664,7 +17953,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -17693,7 +17982,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -17722,7 +18011,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -17751,7 +18040,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -17780,7 +18069,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -17809,7 +18098,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -17838,7 +18127,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -17867,7 +18156,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -17896,7 +18185,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -17925,7 +18214,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -17954,7 +18243,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -17983,7 +18272,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -18012,7 +18301,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -18041,7 +18330,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -18070,7 +18359,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -18099,7 +18388,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -18128,7 +18417,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -18157,7 +18446,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -18186,7 +18475,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -18215,7 +18504,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -18244,7 +18533,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -18273,7 +18562,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -18302,7 +18591,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -18331,7 +18620,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -18360,7 +18649,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -18389,7 +18678,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -18418,7 +18707,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -18447,7 +18736,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -18476,7 +18765,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -18505,7 +18794,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -18534,7 +18823,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -18563,7 +18852,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -18592,7 +18881,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -18621,7 +18910,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -18650,7 +18939,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -18679,7 +18968,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -18708,7 +18997,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -18737,7 +19026,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -18766,7 +19055,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -18795,7 +19084,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -18824,7 +19113,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -18853,7 +19142,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -18882,7 +19171,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -18911,7 +19200,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -18940,7 +19229,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -18969,7 +19258,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -18998,7 +19287,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -19027,7 +19316,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -19056,7 +19345,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -19085,7 +19374,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -19114,7 +19403,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -19143,7 +19432,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -19172,7 +19461,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -19201,7 +19490,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -19230,7 +19519,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -19259,7 +19548,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -19288,7 +19577,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -19317,7 +19606,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -19346,7 +19635,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -19375,7 +19664,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -19404,7 +19693,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -19433,7 +19722,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -19462,7 +19751,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -19491,7 +19780,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -19520,7 +19809,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -19549,7 +19838,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -19578,7 +19867,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -19607,7 +19896,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -19636,7 +19925,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -19665,7 +19954,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -19694,7 +19983,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -19723,7 +20012,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -19752,7 +20041,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -19781,7 +20070,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -19810,7 +20099,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -19839,7 +20128,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -19868,7 +20157,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -19897,7 +20186,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -19926,7 +20215,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -19955,7 +20244,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -19984,7 +20273,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -20013,7 +20302,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -20042,7 +20331,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -20071,7 +20360,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -20100,7 +20389,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -20129,7 +20418,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -20158,7 +20447,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -20187,7 +20476,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -20216,7 +20505,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -20245,7 +20534,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -20274,7 +20563,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -20303,7 +20592,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -20332,7 +20621,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -20361,7 +20650,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -20390,7 +20679,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -20419,7 +20708,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -20448,7 +20737,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -20477,7 +20766,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -20506,7 +20795,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -20535,7 +20824,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -20564,7 +20853,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -20593,7 +20882,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -20622,7 +20911,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -20651,7 +20940,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -20680,7 +20969,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -20709,7 +20998,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -20738,7 +21027,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -20767,7 +21056,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -20796,7 +21085,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -20825,7 +21114,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -20854,7 +21143,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -20883,7 +21172,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -20912,7 +21201,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -20941,7 +21230,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -20970,7 +21259,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -20999,7 +21288,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -21028,7 +21317,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -21057,7 +21346,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -21086,7 +21375,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -21115,7 +21404,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -21144,7 +21433,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -21173,7 +21462,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -21202,7 +21491,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -21231,7 +21520,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -21260,7 +21549,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -21289,7 +21578,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -21318,7 +21607,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -21347,7 +21636,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -21376,7 +21665,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -21405,7 +21694,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -21434,7 +21723,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -21463,7 +21752,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -21492,7 +21781,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -21521,7 +21810,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -21550,7 +21839,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -21579,7 +21868,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -21608,7 +21897,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -21637,7 +21926,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -21666,7 +21955,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -21695,7 +21984,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -21724,7 +22013,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -21753,7 +22042,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -21782,7 +22071,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -21811,7 +22100,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -21840,7 +22129,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -21869,7 +22158,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -21898,7 +22187,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -21927,7 +22216,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -21956,7 +22245,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -21985,7 +22274,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -22014,7 +22303,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -22043,7 +22332,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -22072,7 +22361,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -22101,7 +22390,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -22130,7 +22419,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -22159,7 +22448,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -22188,7 +22477,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -22217,7 +22506,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -22246,7 +22535,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -22275,7 +22564,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -22304,7 +22593,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -22333,7 +22622,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -22362,7 +22651,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -22391,7 +22680,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -22420,7 +22709,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -22449,7 +22738,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -22478,7 +22767,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -22507,7 +22796,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -22536,7 +22825,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -22565,7 +22854,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -22594,7 +22883,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -22623,7 +22912,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -22652,7 +22941,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -22681,7 +22970,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -22710,7 +22999,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -22739,7 +23028,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -22768,7 +23057,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -22797,7 +23086,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -22826,7 +23115,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -22855,7 +23144,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -22884,7 +23173,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -22913,7 +23202,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -22942,7 +23231,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -22971,7 +23260,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -23000,7 +23289,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -23029,7 +23318,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -23058,7 +23347,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -23087,7 +23376,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -23116,7 +23405,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -23145,7 +23434,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -23174,7 +23463,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -23203,7 +23492,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -23232,7 +23521,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -23261,7 +23550,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -23290,7 +23579,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -23319,7 +23608,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -23348,7 +23637,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -23377,7 +23666,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -23406,7 +23695,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -23435,7 +23724,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -23464,7 +23753,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -23493,7 +23782,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -23522,7 +23811,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -23551,7 +23840,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -23580,7 +23869,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -23609,7 +23898,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -23638,7 +23927,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -23667,7 +23956,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -23696,7 +23985,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -23725,7 +24014,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -23754,7 +24043,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -23783,7 +24072,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -23812,7 +24101,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -23841,7 +24130,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -23870,7 +24159,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -23899,7 +24188,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -23928,7 +24217,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -23957,7 +24246,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -23986,7 +24275,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -24015,7 +24304,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -24044,7 +24333,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -24073,7 +24362,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -24102,7 +24391,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -24131,7 +24420,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -24160,7 +24449,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -24189,7 +24478,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -24218,7 +24507,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -24247,7 +24536,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -24276,7 +24565,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -24305,7 +24594,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -24334,7 +24623,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -24363,7 +24652,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -24392,7 +24681,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -24421,7 +24710,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -24450,7 +24739,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -24479,7 +24768,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -24508,7 +24797,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -24537,7 +24826,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -24566,7 +24855,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -24595,7 +24884,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -24624,7 +24913,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -24653,7 +24942,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -24682,7 +24971,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -24711,7 +25000,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -24740,7 +25029,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -24769,7 +25058,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -24798,7 +25087,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -24827,7 +25116,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -24856,7 +25145,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -24885,7 +25174,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -24914,7 +25203,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -24943,7 +25232,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -24972,7 +25261,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -25001,7 +25290,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -25030,7 +25319,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -25059,7 +25348,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -25088,7 +25377,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -25117,7 +25406,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -25146,7 +25435,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -25175,7 +25464,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -25204,7 +25493,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -25233,7 +25522,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -25262,7 +25551,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -25291,7 +25580,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -25320,7 +25609,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -25349,7 +25638,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -25378,7 +25667,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -25407,7 +25696,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -25436,7 +25725,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -25465,7 +25754,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -25494,7 +25783,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -25523,7 +25812,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -25552,7 +25841,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -25581,7 +25870,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -25610,7 +25899,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -25639,7 +25928,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -25668,7 +25957,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -25697,7 +25986,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -25726,7 +26015,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -25755,7 +26044,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -25784,7 +26073,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -25813,7 +26102,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -25842,7 +26131,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -25871,7 +26160,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -25900,7 +26189,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -25929,7 +26218,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -25958,7 +26247,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -25987,7 +26276,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -26016,7 +26305,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -26045,7 +26334,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -26074,7 +26363,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -26103,7 +26392,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -26132,7 +26421,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -26161,7 +26450,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -26190,7 +26479,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -26219,7 +26508,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -26248,7 +26537,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -26277,7 +26566,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -26306,7 +26595,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -26335,7 +26624,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -26364,7 +26653,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -26393,7 +26682,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -26422,7 +26711,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -26451,7 +26740,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -26480,7 +26769,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -26509,7 +26798,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -26538,7 +26827,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -26567,7 +26856,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -26596,7 +26885,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -26625,7 +26914,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -26654,7 +26943,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -26683,7 +26972,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -26712,7 +27001,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -26741,7 +27030,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -26770,7 +27059,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -26799,7 +27088,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -26828,7 +27117,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -26857,7 +27146,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -26886,7 +27175,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -26915,7 +27204,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -26944,7 +27233,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -26973,7 +27262,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -27002,7 +27291,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -27031,7 +27320,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -27060,7 +27349,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -27089,7 +27378,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -27118,7 +27407,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -27147,7 +27436,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -27176,7 +27465,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -27205,7 +27494,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -27234,7 +27523,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -27263,7 +27552,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -27292,7 +27581,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -27321,7 +27610,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -27350,7 +27639,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -27379,7 +27668,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -27408,7 +27697,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -27437,7 +27726,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -27466,7 +27755,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -27495,7 +27784,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -27524,7 +27813,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -27553,7 +27842,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -27582,7 +27871,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -27611,7 +27900,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -27640,7 +27929,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -27669,7 +27958,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -27698,7 +27987,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -27727,7 +28016,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -27756,7 +28045,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -27785,7 +28074,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -27814,7 +28103,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -27843,7 +28132,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -27872,7 +28161,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -27901,7 +28190,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -27930,7 +28219,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -27959,7 +28248,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -27988,7 +28277,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -28017,7 +28306,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -28046,7 +28335,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -28075,7 +28364,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -28104,7 +28393,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -28133,7 +28422,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -28162,7 +28451,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -28191,7 +28480,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -28220,7 +28509,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -28249,7 +28538,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -28278,7 +28567,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -28307,7 +28596,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -28336,7 +28625,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -28365,7 +28654,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -28394,7 +28683,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -28423,7 +28712,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -28452,7 +28741,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -28481,7 +28770,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -28510,7 +28799,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -28539,7 +28828,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -28568,7 +28857,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -28597,7 +28886,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -28626,7 +28915,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -28655,7 +28944,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -28684,7 +28973,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -28713,7 +29002,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -28742,7 +29031,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -28771,7 +29060,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -28800,7 +29089,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -28829,7 +29118,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -28858,7 +29147,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -28887,7 +29176,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -28916,7 +29205,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -28945,7 +29234,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -28974,7 +29263,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -29003,7 +29292,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -29032,7 +29321,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -29061,7 +29350,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -29090,7 +29379,7 @@
       <c r="Z985" s="2"/>
       <c r="AA985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -29119,7 +29408,7 @@
       <c r="Z986" s="2"/>
       <c r="AA986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -29148,7 +29437,7 @@
       <c r="Z987" s="2"/>
       <c r="AA987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -29177,7 +29466,7 @@
       <c r="Z988" s="2"/>
       <c r="AA988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -29206,7 +29495,7 @@
       <c r="Z989" s="2"/>
       <c r="AA989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -29235,7 +29524,7 @@
       <c r="Z990" s="2"/>
       <c r="AA990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -29264,7 +29553,7 @@
       <c r="Z991" s="2"/>
       <c r="AA991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -29293,7 +29582,7 @@
       <c r="Z992" s="2"/>
       <c r="AA992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -29322,7 +29611,7 @@
       <c r="Z993" s="2"/>
       <c r="AA993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -29351,7 +29640,7 @@
       <c r="Z994" s="2"/>
       <c r="AA994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -29380,7 +29669,7 @@
       <c r="Z995" s="2"/>
       <c r="AA995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -29409,7 +29698,7 @@
       <c r="Z996" s="2"/>
       <c r="AA996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -29438,7 +29727,7 @@
       <c r="Z997" s="2"/>
       <c r="AA997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -29467,7 +29756,7 @@
       <c r="Z998" s="2"/>
       <c r="AA998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -29496,7 +29785,7 @@
       <c r="Z999" s="2"/>
       <c r="AA999" s="2"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -29527,8 +29816,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H17"/>
+    <hyperlink ref="H17" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>